--- a/汇总文档.xlsx
+++ b/汇总文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SRTP论文分享库\SRTP2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E88A370-45C0-48AF-B35E-80C8DA630242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D08DBEC-641F-4717-8FB5-BB1543450D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>论文名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,13 @@
   </si>
   <si>
     <t>【注意事项】这里是ML方向的论文分享，如若已读该论文，请在[已阅list]加上你的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeRF: Representing Scenes as Neural Radiance Fields for View Synthesis</t>
+  </si>
+  <si>
+    <t>ECCV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,10 +109,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -386,15 +392,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="16.265625" customWidth="1"/>
+    <col min="1" max="1" width="62.59765625" customWidth="1"/>
+    <col min="2" max="2" width="16.265625" customWidth="1"/>
     <col min="3" max="3" width="17.1328125" customWidth="1"/>
     <col min="4" max="4" width="16.73046875" customWidth="1"/>
   </cols>
@@ -428,116 +435,18 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2">
+        <v>8015</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
